--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N2">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O2">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P2">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q2">
-        <v>1332.571566408902</v>
+        <v>1.209706579780222</v>
       </c>
       <c r="R2">
-        <v>11993.14409768012</v>
+        <v>10.887359218022</v>
       </c>
       <c r="S2">
-        <v>0.2326438033399125</v>
+        <v>0.0008100175750723026</v>
       </c>
       <c r="T2">
-        <v>0.2326438033399126</v>
+        <v>0.0008100175750723027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.336114</v>
       </c>
       <c r="O3">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P3">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q3">
-        <v>1363.674448373718</v>
+        <v>24.852940889738</v>
       </c>
       <c r="R3">
-        <v>12273.07003536346</v>
+        <v>223.676468007642</v>
       </c>
       <c r="S3">
-        <v>0.2380738252145551</v>
+        <v>0.01664148914241525</v>
       </c>
       <c r="T3">
-        <v>0.2380738252145552</v>
+        <v>0.01664148914241525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N4">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O4">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P4">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q4">
-        <v>695.4785511483699</v>
+        <v>20.17476157952756</v>
       </c>
       <c r="R4">
-        <v>6259.30696033533</v>
+        <v>181.572854215748</v>
       </c>
       <c r="S4">
-        <v>0.1214184508802887</v>
+        <v>0.01350898782023633</v>
       </c>
       <c r="T4">
-        <v>0.1214184508802887</v>
+        <v>0.01350898782023633</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N5">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O5">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P5">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q5">
-        <v>469.5556850420969</v>
+        <v>23.38888506474177</v>
       </c>
       <c r="R5">
-        <v>4226.001165378872</v>
+        <v>210.499965582676</v>
       </c>
       <c r="S5">
-        <v>0.08197625043318027</v>
+        <v>0.01566115972290479</v>
       </c>
       <c r="T5">
-        <v>0.08197625043318028</v>
+        <v>0.01566115972290479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.336114</v>
       </c>
       <c r="O6">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P6">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q6">
-        <v>480.5153478594041</v>
+        <v>480.515347859404</v>
       </c>
       <c r="R6">
         <v>4324.638130734636</v>
       </c>
       <c r="S6">
-        <v>0.08388961681845626</v>
+        <v>0.3217523020572579</v>
       </c>
       <c r="T6">
-        <v>0.08388961681845628</v>
+        <v>0.3217523020572579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N7">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O7">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P7">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q7">
-        <v>245.0644421271934</v>
+        <v>390.0658123872205</v>
       </c>
       <c r="R7">
-        <v>2205.57997914474</v>
+        <v>3510.592311484984</v>
       </c>
       <c r="S7">
-        <v>0.0427839864792295</v>
+        <v>0.261187438962188</v>
       </c>
       <c r="T7">
-        <v>0.0427839864792295</v>
+        <v>0.261187438962188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.904209333333332</v>
+        <v>0.4435246666666666</v>
       </c>
       <c r="N8">
-        <v>26.712628</v>
+        <v>1.330574</v>
       </c>
       <c r="O8">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="P8">
-        <v>0.3928890865119899</v>
+        <v>0.02616294045579069</v>
       </c>
       <c r="Q8">
-        <v>448.3209355281728</v>
+        <v>14.47399417306733</v>
       </c>
       <c r="R8">
-        <v>4034.888419753556</v>
+        <v>130.265947557606</v>
       </c>
       <c r="S8">
-        <v>0.07826903273889715</v>
+        <v>0.009691763157813588</v>
       </c>
       <c r="T8">
-        <v>0.07826903273889717</v>
+        <v>0.009691763157813588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.336114</v>
       </c>
       <c r="O9">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="P9">
-        <v>0.4020593128556135</v>
+        <v>0.5375072133340244</v>
       </c>
       <c r="Q9">
-        <v>458.784968749042</v>
+        <v>297.3624576688741</v>
       </c>
       <c r="R9">
-        <v>4129.064718741379</v>
+        <v>2676.262119019867</v>
       </c>
       <c r="S9">
-        <v>0.08009587082260215</v>
+        <v>0.1991134221343512</v>
       </c>
       <c r="T9">
-        <v>0.08009587082260217</v>
+        <v>0.1991134221343512</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.64717</v>
+        <v>7.396838666666667</v>
       </c>
       <c r="N10">
-        <v>13.94151</v>
+        <v>22.190516</v>
       </c>
       <c r="O10">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="P10">
-        <v>0.2050516006323966</v>
+        <v>0.4363298462101849</v>
       </c>
       <c r="Q10">
-        <v>233.9818757583633</v>
+        <v>241.3886031752894</v>
       </c>
       <c r="R10">
-        <v>2105.83688182527</v>
+        <v>2172.497428577604</v>
       </c>
       <c r="S10">
-        <v>0.04084916327287837</v>
+        <v>0.1616334194277605</v>
       </c>
       <c r="T10">
-        <v>0.04084916327287837</v>
+        <v>0.1616334194277605</v>
       </c>
     </row>
   </sheetData>
